--- a/CourseList_Timings.xlsx
+++ b/CourseList_Timings.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigar.patel/Documents/Tutorials/AlgoExpert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{974E03B5-4B18-EA4B-BCDE-4D1B3E13625F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1546D4D6-598F-6441-B52D-BC12979C6793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="16400" windowHeight="21600" xr2:uid="{6B3061CF-5C98-2B4A-B31C-5ACD67395361}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{6B3061CF-5C98-2B4A-B31C-5ACD67395361}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>Data Structures Course</t>
   </si>
@@ -131,17 +130,14 @@
     <t>-</t>
   </si>
   <si>
-    <t>DATA STRUCTURE (DS) Timings for different operations</t>
-  </si>
-  <si>
-    <t>https://www.bigocheatsheet.com</t>
+    <t>SEE ONENOTE FOR ALL DETAILS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,14 +147,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,23 +169,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA903A0-46E8-2648-8E80-A11C8793D14A}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,746 +503,725 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f>5*60+16</f>
         <v>316</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <f>(B3*C3)/(60*60*24)</f>
+      <c r="D4" s="1">
+        <f>(B4*C4)/(60*60*24)</f>
         <v>3.6574074074074074E-3</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <f>3*60+40</f>
         <v>220</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <f>(E3*F3)/(60*60*24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f>(E4*F4)/(60*60*24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f>8*60+29</f>
         <v>509</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D27" si="0">(B4*C4)/(60*60*24)</f>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D16" si="0">(B5*C5)/(60*60*24)</f>
         <v>5.8912037037037041E-3</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <f>8*60+26</f>
         <v>506</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G27" si="1">(E4*F4)/(60*60*24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G28" si="1">(E5*F5)/(60*60*24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f>8*60+5</f>
         <v>485</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>5.6134259259259262E-3</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f>14*60+31</f>
         <v>871</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>27*60+45</f>
         <v>1665</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>1.9270833333333334E-2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f>28*60+55</f>
         <v>1735</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>37*60+10</f>
         <v>2230</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>2.5810185185185186E-2</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f>17*60+40</f>
         <v>1060</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f>20*60+14</f>
         <v>1214</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>1.4050925925925927E-2</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f>16*60+41</f>
         <v>1001</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>42*60+18</f>
         <v>2538</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f>25*60+54</f>
         <v>1554</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f>30*60+41</f>
         <v>1841</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f>27*60+46</f>
         <v>1666</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f>25*60+2</f>
         <v>1502</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <f>17*60+14</f>
         <v>1034</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <f>13*60+23</f>
         <v>803</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <f>24*60+52</f>
         <v>1492</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f>10*60+9</f>
         <v>609</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f>37*60+55</f>
         <v>2275</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f>18*60+51</f>
         <v>1131</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f>38*60</f>
         <v>2280</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <f>20*60+24</f>
         <v>1224</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f>10*60+48</f>
         <v>648</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
         <f>32*60+30</f>
         <v>1950</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
         <f>29*60+25</f>
         <v>1765</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19">
         <f>30*60+24</f>
         <v>1824</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
         <f>30*60+14</f>
         <v>1814</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
         <f>26*60+1</f>
         <v>1561</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
         <f>13*60+6</f>
         <v>786</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23">
         <f>17*60+10</f>
         <v>1030</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
         <f>12*60+1</f>
         <v>721</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25">
         <f>37*60+47</f>
         <v>2267</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26">
         <f>36*60+58</f>
         <v>2218</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
         <f>36*60+5</f>
         <v>2165</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28">
         <f>28*60+35</f>
         <v>1715</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="2">
-        <f>SUM(B3:B27)/(60*60*24)</f>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <f>SUM(B4:B28)/(60*60*24)</f>
         <v>0.18596064814814814</v>
       </c>
-      <c r="D28" s="2">
-        <f>B28-SUM(D3:D27)</f>
+      <c r="D29" s="1">
+        <f>B29-SUM(D4:D28)</f>
         <v>0.11166666666666665</v>
       </c>
-      <c r="E28" s="2">
-        <f>SUM(E3:E27)/(60*60*24)</f>
+      <c r="E29" s="1">
+        <f>SUM(E4:E28)/(60*60*24)</f>
         <v>0.41849537037037038</v>
       </c>
-      <c r="G28" s="2">
-        <f>E28-SUM(G3:G27)</f>
+      <c r="G29" s="1">
+        <f>E29-SUM(G4:G28)</f>
         <v>0.41849537037037038</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D5B4DE-890B-524E-93BA-9167DC9E9E8C}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{01065812-AC26-5F41-B9E9-C75A43425BB3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>